--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>NO</t>
   </si>
@@ -278,6 +278,24 @@
   </si>
   <si>
     <t>报名者踢球的位置</t>
+  </si>
+  <si>
+    <t>T_DICTIONARY</t>
+  </si>
+  <si>
+    <t>D_ID</t>
+  </si>
+  <si>
+    <t>D_NAMME</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>D_TYPE</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -736,10 +754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1902,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
@@ -1910,44 +1928,40 @@
       </c>
       <c r="E82" s="1" t="str">
         <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;", "</f>
-        <v>MATCH_MEMBER_POSITION DATE , </v>
+        <v>MATCH_MEMBER_POSITION VARCHAR(100) , </v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="1" t="str">
         <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;", "</f>
-        <v>MATCH_ADDRESS VARCHAR(500) , </v>
+        <v>INPUT_NAME VARCHAR(100) , </v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D84" s="6"/>
       <c r="E84" s="1" t="str">
         <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;", "</f>
-        <v>MATCH_ORGANIZER DECIMAL(10,0) , </v>
+        <v>INPUT_DATE DATE , </v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>14</v>
@@ -1956,12 +1970,12 @@
       <c r="D85" s="6"/>
       <c r="E85" s="1" t="str">
         <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <v>UPDATE_NAME VARCHAR(100) , </v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>1</v>
@@ -1970,50 +1984,198 @@
       <c r="D86" s="6"/>
       <c r="E86" s="1" t="str">
         <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <v>UPDATE_DATE DATE , </v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E87" s="1" t="str">
         <f>A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;", "</f>
+        <v>DELSIGN DECIMAL(1,0) , </v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" ht="18.75" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="1" t="str">
+        <f>"drop table "&amp;B90&amp;";"</f>
+        <v>drop table T_DICTIONARY;</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>"create table "&amp;B90&amp;" ("</f>
+        <v>create table T_DICTIONARY (</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="1" t="str">
+        <f>A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;", "</f>
+        <v>D_ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;", "</f>
+        <v>D_NAMME VARCHAR(500) , </v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;", "</f>
+        <v>D_TYPE DECIMAL(10,0) , </v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="1" t="str">
+        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;", "</f>
+        <v>INPUT_NAME VARCHAR(100) , </v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="1" t="str">
+        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;", "</f>
+        <v>INPUT_DATE DATE , </v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="1" t="str">
+        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;", "</f>
         <v>UPDATE_NAME VARCHAR(100) , </v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="5" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="1" t="str">
-        <f>A88&amp;" "&amp;B88&amp;" "&amp;C88&amp;", "</f>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="1" t="str">
+        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;", "</f>
         <v>UPDATE_DATE DATE , </v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="5" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="1" t="str">
-        <f>A89&amp;" "&amp;B89&amp;" "&amp;C89&amp;", "</f>
+      <c r="E100" s="1" t="str">
+        <f>A100&amp;" "&amp;B100&amp;" "&amp;C100&amp;", "</f>
         <v>DELSIGN DECIMAL(1,0) , </v>
       </c>
     </row>

--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>NO</t>
   </si>
@@ -55,61 +55,82 @@
     <t>NOT NULL PRIMARY KEY</t>
   </si>
   <si>
+    <t>用户表非空主键</t>
+  </si>
+  <si>
     <t>LOGIN_NAME</t>
   </si>
   <si>
     <t>VARCHAR(100)</t>
   </si>
   <si>
+    <t>用户登录名</t>
+  </si>
+  <si>
     <t>LOGIN_PASSWORD</t>
   </si>
   <si>
+    <t>用户登录密码</t>
+  </si>
+  <si>
     <t>USER_NAME</t>
   </si>
   <si>
+    <t>用户名</t>
+  </si>
+  <si>
     <t>TOKEN</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>ROLE</t>
   </si>
   <si>
     <t>VARCHAR(2)</t>
   </si>
   <si>
-    <t>0:ADMIN;1:VIP USER;2:NORMAL USER;</t>
+    <t>用户角色</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>0:ACTIVE;1:INACTIVE;</t>
-  </si>
-  <si>
-    <t>MARKER_FLAG</t>
-  </si>
-  <si>
-    <t>0:CAN MARK;1:CAN'T MARK;</t>
+    <t>用户激活状态</t>
   </si>
   <si>
     <t>INPUT_NAME</t>
   </si>
   <si>
+    <t>插入人</t>
+  </si>
+  <si>
     <t>INPUT_DATE</t>
   </si>
   <si>
+    <t>插入时间</t>
+  </si>
+  <si>
     <t>UPDATE_NAME</t>
   </si>
   <si>
+    <t>修改人</t>
+  </si>
+  <si>
     <t>UPDATE_DATE</t>
   </si>
   <si>
+    <t>修改时间</t>
+  </si>
+  <si>
     <t>DELSIGN</t>
   </si>
   <si>
     <t>DECIMAL(1,0)</t>
   </si>
   <si>
-    <t>0:UNDELETED;1:DELETED;</t>
+    <t>删除标识</t>
   </si>
   <si>
     <t>T_TEAM_FOOTBALL</t>
@@ -118,12 +139,18 @@
     <t>TID</t>
   </si>
   <si>
+    <t>足球队表非空主键</t>
+  </si>
+  <si>
     <t>TEAM_NAME</t>
   </si>
   <si>
     <t>VARCHAR(500)</t>
   </si>
   <si>
+    <t>球队名称</t>
+  </si>
+  <si>
     <t>TEAM_CITY</t>
   </si>
   <si>
@@ -154,6 +181,9 @@
     <t>TM_ID</t>
   </si>
   <si>
+    <t>足球队成员表非空主键</t>
+  </si>
+  <si>
     <t>T_ID</t>
   </si>
   <si>
@@ -163,6 +193,9 @@
     <t>U_ID</t>
   </si>
   <si>
+    <t>用户ID</t>
+  </si>
+  <si>
     <t>MEMBER_POSITION</t>
   </si>
   <si>
@@ -202,9 +235,15 @@
     <t>M_ID</t>
   </si>
   <si>
+    <t>足球比赛表非空主键</t>
+  </si>
+  <si>
     <t>MATCH_DATE</t>
   </si>
   <si>
+    <t>比赛日期</t>
+  </si>
+  <si>
     <t>MATCH_ADDRESS</t>
   </si>
   <si>
@@ -265,6 +304,9 @@
     <t>MM_ID</t>
   </si>
   <si>
+    <t>参赛人员表非空主键</t>
+  </si>
+  <si>
     <t>关联比赛MID</t>
   </si>
   <si>
@@ -284,6 +326,9 @@
   </si>
   <si>
     <t>D_ID</t>
+  </si>
+  <si>
+    <t>字典表非空主键</t>
   </si>
   <si>
     <t>D_NAMME</t>
@@ -303,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -754,19 +799,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -836,1347 +881,1406 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1" t="str">
-        <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;", "</f>
-        <v>ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
+        <v>ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '用户表非空主键' , </v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E9" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;", "</f>
-        <v>LOGIN_NAME VARCHAR(100) , </v>
+        <f t="shared" ref="E6:E16" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
+        <v>LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="1" t="str">
-        <f>A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;", "</f>
-        <v>LOGIN_PASSWORD VARCHAR(100) , </v>
+        <f>A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
+        <v>LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1" t="str">
-        <f>A8&amp;" "&amp;B8&amp;" "&amp;C8&amp;", "</f>
-        <v>USER_NAME VARCHAR(100) , </v>
+        <f>A8&amp;" "&amp;B8&amp;" "&amp;C8&amp;" comment '"&amp;D8&amp;"' , "</f>
+        <v>USER_NAME VARCHAR(100)  comment '用户名' , </v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="1" t="str">
-        <f>A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;", "</f>
-        <v>TOKEN VARCHAR(100) , </v>
+        <f>A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;" comment '"&amp;D9&amp;"' , "</f>
+        <v>TOKEN VARCHAR(100)  comment 'token' , </v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" ref="E10:E17" si="1">A10&amp;" "&amp;B10&amp;" "&amp;C10&amp;", "</f>
-        <v>ROLE VARCHAR(2) , </v>
+        <f>A10&amp;" "&amp;B10&amp;" "&amp;C10&amp;" comment '"&amp;D10&amp;"' , "</f>
+        <v>ROLE VARCHAR(2)  comment '用户角色' , </v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" ref="E11" si="2">A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;", "</f>
-        <v>STATUS VARCHAR(2) , </v>
+        <f>A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
+        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12:E17" si="3">A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;", "</f>
-        <v>MARKER_FLAG VARCHAR(2) , </v>
+        <f>A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" comment '"&amp;D12&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="1" t="str">
-        <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;" comment '"&amp;D13&amp;"' , "</f>
+        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="1" t="str">
-        <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;", "</f>
-        <v>INPUT_DATE VARCHAR(100) , </v>
+        <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;" comment '"&amp;D14&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="1" t="str">
-        <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" comment '"&amp;D15&amp;"' , "</f>
+        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="1" t="str">
-        <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;", "</f>
-        <v>UPDATE_DATE VARCHAR(100) , </v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>A17&amp;" "&amp;B17&amp;" "&amp;C17&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+        <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;" comment '"&amp;D16&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42269</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
+      <c r="E20" s="1" t="str">
+        <f>"drop table "&amp;B19&amp;";"</f>
+        <v>drop table T_TEAM_FOOTBALL;</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="1" t="str">
-        <f>"drop table "&amp;B20&amp;";"</f>
-        <v>drop table T_TEAM_FOOTBALL;</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B19&amp;" ("</f>
+        <v>create table T_TEAM_FOOTBALL (</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>"create table "&amp;B20&amp;" ("</f>
-        <v>create table T_TEAM_FOOTBALL (</v>
+        <f>A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
+        <v>TID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="1" t="str">
-        <f>A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;", "</f>
-        <v>TID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f t="shared" ref="E23:E32" si="1">A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
+        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="1" t="str">
-        <f>A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;", "</f>
-        <v>TEAM_NAME VARCHAR(500) , </v>
+        <f>A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
+        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E31" si="4">A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;", "</f>
-        <v>TEAM_CITY VARCHAR(100) , </v>
+        <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;" comment '"&amp;D25&amp;"' , "</f>
+        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
+      <c r="D26" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;", "</f>
-        <v>TEAM_CREATE_DATE DATE , </v>
+        <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
+        <v>TEAM_CAPTAIN DECIMAL(10,0)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;", "</f>
-        <v>TEAM_CAPTAIN DECIMAL(10,0) , </v>
+        <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
+        <v>TEAM_POINTS DECIMAL(10,0)  comment '球队积分' , </v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;", "</f>
-        <v>TEAM_POINTS DECIMAL(10,0) , </v>
+        <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E29" s="1" t="str">
-        <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;" comment '"&amp;D29&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E30" s="1" t="str">
-        <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" comment '"&amp;D30&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E31" s="1" t="str">
-        <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;" comment '"&amp;D31&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1" t="str">
-        <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;", "</f>
-        <v>UPDATE_DATE DATE , </v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>A33&amp;" "&amp;B33&amp;" "&amp;C33&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+      <c r="D34" s="4">
+        <v>42269</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18.75" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
+      <c r="E36" s="1" t="str">
+        <f>"drop table "&amp;B35&amp;";"</f>
+        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E37" s="1" t="str">
-        <f>"drop table "&amp;B36&amp;";"</f>
-        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B35&amp;" ("</f>
+        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>"create table "&amp;B36&amp;" ("</f>
-        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
+        <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
+        <v>TM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>12</v>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;", "</f>
-        <v>TM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f t="shared" ref="E39:E50" si="2">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
+        <v>T_ID DECIMAL(10,0)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;", "</f>
-        <v>T_ID DECIMAL(10,0) , </v>
+        <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
+        <v>U_ID DECIMAL(10,0)  comment '用户ID' , </v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E41" s="1" t="str">
-        <f>A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;", "</f>
-        <v>U_ID DECIMAL(10,0) , </v>
+        <f>A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
+        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" ref="E42:E51" si="5">A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;", "</f>
-        <v>MEMBER_POSITION VARCHAR(10) , </v>
+        <f>A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
+        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>53</v>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;", "</f>
-        <v>MEMBER_JOIN_DATE DATE , </v>
+        <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;" comment '"&amp;D43&amp;"' , "</f>
+        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;", "</f>
-        <v>MEMBER_LEFT_DATE DATE , </v>
+        <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
+        <v>MEMBER_ABSENT_TIME DECIMAL(10,0)  comment '球员缺席次数' , </v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;", "</f>
-        <v>MEMBER_ABSENT_TIME DECIMAL(10,0) , </v>
+        <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" comment '"&amp;D45&amp;"' , "</f>
+        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;", "</f>
-        <v>MEMBER_ABSENT_DATE DATE , </v>
+        <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E47" s="1" t="str">
-        <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E48" s="1" t="str">
-        <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" comment '"&amp;D48&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E49" s="1" t="str">
-        <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;" comment '"&amp;D49&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="1" t="str">
-        <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;", "</f>
-        <v>UPDATE_DATE DATE , </v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f>A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+      <c r="D52" s="4">
+        <v>42269</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B54" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
+      <c r="E54" s="1" t="str">
+        <f>"drop table "&amp;B53&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL;</v>
+      </c>
     </row>
     <row r="55" ht="18.75" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E55" s="1" t="str">
-        <f>"drop table "&amp;B54&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL;</v>
-      </c>
-    </row>
-    <row r="56" ht="18.75" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B53&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL (</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>"create table "&amp;B54&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL (</v>
+        <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
+        <v>M_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E57" s="1" t="str">
-        <f>A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;", "</f>
-        <v>M_ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f t="shared" ref="E57:E71" si="3">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
+        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E58" s="1" t="str">
-        <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;", "</f>
-        <v>MATCH_DATE DATE , </v>
+        <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
+        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;", "</f>
-        <v>MATCH_ADDRESS VARCHAR(500) , </v>
+        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
+        <v>MATCH_ORGANIZER DECIMAL(10,0)  comment '组织者UID' , </v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>66</v>
+      <c r="D60" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;", "</f>
-        <v>MATCH_ORGANIZER DECIMAL(10,0) , </v>
+        <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
+        <v>MATCH_KEEPER_MEMBERS DECIMAL(10,0)  comment '守门员人数' , </v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" ref="E61:E67" si="6">A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;", "</f>
-        <v>MATCH_KEEPER_MEMBERS DECIMAL(10,0) , </v>
+        <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
+        <v>MATCH_DEFENDER_MEMBERS DECIMAL(10,0)  comment '后卫人数' , </v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;", "</f>
-        <v>MATCH_DEFENDER_MEMBERS DECIMAL(10,0) , </v>
+        <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
+        <v>MATCH_MIDFIELDER_MEMBERS DECIMAL(10,0)  comment '中场人数' , </v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;", "</f>
-        <v>MATCH_MIDFIELDER_MEMBERS DECIMAL(10,0) , </v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
+        <v>MATCH_STRIKER_MEMBERS DECIMAL(10,0)  comment '前锋人数' , </v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;", "</f>
-        <v>MATCH_STRIKER_MEMBERS DECIMAL(10,0) , </v>
+        <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
+        <v>MATCH_REFEREE_MEMBERS DECIMAL(10,0)  comment '裁判人数' , </v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;", "</f>
-        <v>MATCH_REFEREE_MEMBERS DECIMAL(10,0) , </v>
+        <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
+        <v>MATCH_TEAMA_ID DECIMAL(10,0)  comment 'A球队临时ID' , </v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;", "</f>
-        <v>MATCH_TEAMA_ID DECIMAL(10,0) , </v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:5">
+        <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
+        <v>MATCH_TEAMB_ID DECIMAL(10,0)  comment 'B球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;", "</f>
-        <v>MATCH_TEAMB_ID DECIMAL(10,0) , </v>
+        <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E68" s="1" t="str">
-        <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;" comment '"&amp;D68&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E69" s="1" t="str">
-        <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" comment '"&amp;D69&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E70" s="1" t="str">
-        <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;" comment '"&amp;D70&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="1" t="str">
-        <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;", "</f>
-        <v>UPDATE_DATE DATE , </v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f>A72&amp;" "&amp;B72&amp;" "&amp;C72&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+      <c r="D73" s="4">
+        <v>42269</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="75" ht="18.75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
+      <c r="E75" s="1" t="str">
+        <f>"drop table "&amp;B74&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
+      </c>
     </row>
     <row r="76" ht="18.75" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E76" s="1" t="str">
-        <f>"drop table "&amp;B75&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
-      </c>
-    </row>
-    <row r="77" ht="18.75" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B74&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>"create table "&amp;B75&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
+        <v>MM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '参赛人员表非空主键' , </v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" ref="E78:E80" si="7">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;", "</f>
-        <v>MM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f t="shared" ref="E78:E86" si="4">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
+        <v>M_ID DECIMAL(10,0)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;", "</f>
-        <v>M_ID DECIMAL(10,0) , </v>
+        <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
+        <v>T_ID DECIMAL(10,0)  comment '报名临时球队ID' , </v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;", "</f>
-        <v>T_ID DECIMAL(10,0) , </v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:5">
+        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
+        <v>U_ID DECIMAL(10,0)  comment '关联UID' , </v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;", "</f>
-        <v>U_ID DECIMAL(10,0) , </v>
+        <f>A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
+        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>87</v>
+      <c r="D82" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;", "</f>
-        <v>MATCH_MEMBER_POSITION VARCHAR(100) , </v>
+        <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;" comment '"&amp;D82&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E83" s="1" t="str">
-        <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;" comment '"&amp;D83&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E84" s="1" t="str">
-        <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" comment '"&amp;D84&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E85" s="1" t="str">
-        <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;" comment '"&amp;D85&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="1" t="str">
-        <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;", "</f>
-        <v>UPDATE_DATE DATE , </v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="1" t="str">
-        <f>A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+      <c r="D88" s="4">
+        <v>42269</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" ht="18.75" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="90" ht="18.75" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
+      <c r="E90" s="1" t="str">
+        <f>"drop table "&amp;B89&amp;";"</f>
+        <v>drop table T_DICTIONARY;</v>
+      </c>
     </row>
     <row r="91" ht="18.75" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E91" s="1" t="str">
-        <f>"drop table "&amp;B90&amp;";"</f>
-        <v>drop table T_DICTIONARY;</v>
-      </c>
-    </row>
-    <row r="92" ht="18.75" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B89&amp;" ("</f>
+        <v>create table T_DICTIONARY (</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>"create table "&amp;B90&amp;" ("</f>
-        <v>create table T_DICTIONARY (</v>
+        <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
+        <v>D_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E93" s="1" t="str">
-        <f>A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;", "</f>
-        <v>D_ID DECIMAL(10,0) NOT NULL PRIMARY KEY, </v>
+        <f t="shared" ref="E93:E99" si="5">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
+        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;", "</f>
-        <v>D_NAMME VARCHAR(500) , </v>
+        <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
+        <v>D_TYPE DECIMAL(10,0)  comment '类型' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5" t="s">
-        <v>93</v>
+      <c r="D95" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;", "</f>
-        <v>D_TYPE DECIMAL(10,0) , </v>
+        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E96" s="1" t="str">
-        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;", "</f>
-        <v>INPUT_NAME VARCHAR(100) , </v>
+        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E97" s="1" t="str">
-        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;", "</f>
-        <v>INPUT_DATE DATE , </v>
+        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;" comment '"&amp;D97&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E98" s="1" t="str">
-        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;", "</f>
-        <v>UPDATE_NAME VARCHAR(100) , </v>
+        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;" comment '"&amp;D98&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E99" s="1" t="str">
-        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;", "</f>
-        <v>UPDATE_DATE DATE , </v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="1" t="str">
-        <f>A100&amp;" "&amp;B100&amp;" "&amp;C100&amp;", "</f>
-        <v>DELSIGN DECIMAL(1,0) , </v>
+        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
+        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -49,10 +49,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>DECIMAL(10,0)</t>
-  </si>
-  <si>
-    <t>NOT NULL PRIMARY KEY</t>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>NOT NULL PRIMARY KEY AUTO_INCREMENT</t>
   </si>
   <si>
     <t>用户表非空主键</t>
@@ -127,7 +127,7 @@
     <t>DELSIGN</t>
   </si>
   <si>
-    <t>DECIMAL(1,0)</t>
+    <t>INT(1)</t>
   </si>
   <si>
     <t>删除标识</t>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -801,15 +801,15 @@
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="81.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.125" style="1"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
-        <v>ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '用户表非空主键' , </v>
+        <v>ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;" comment '"&amp;D16&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.75" spans="1:4">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E22" s="1" t="str">
         <f>A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
-        <v>TID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球队表非空主键' , </v>
+        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E26" s="1" t="str">
         <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
-        <v>TEAM_CAPTAIN DECIMAL(10,0)  comment '存队长的UID' , </v>
+        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E27" s="1" t="str">
         <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
-        <v>TEAM_POINTS DECIMAL(10,0)  comment '球队积分' , </v>
+        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E32" s="1" t="str">
         <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="18.75" spans="1:4">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E38" s="1" t="str">
         <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
-        <v>TM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球队成员表非空主键' , </v>
+        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" ref="E39:E50" si="2">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
-        <v>T_ID DECIMAL(10,0)  comment '关联球队TID' , </v>
+        <v>T_ID INT(11)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E40" s="1" t="str">
         <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
-        <v>U_ID DECIMAL(10,0)  comment '用户ID' , </v>
+        <v>U_ID INT(11)  comment '用户ID' , </v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E44" s="1" t="str">
         <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
-        <v>MEMBER_ABSENT_TIME DECIMAL(10,0)  comment '球员缺席次数' , </v>
+        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E50" s="1" t="str">
         <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:4">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E56" s="1" t="str">
         <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
-        <v>M_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '足球比赛表非空主键' , </v>
+        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E59" s="1" t="str">
         <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
-        <v>MATCH_ORGANIZER DECIMAL(10,0)  comment '组织者UID' , </v>
+        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="E60" s="1" t="str">
         <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
-        <v>MATCH_KEEPER_MEMBERS DECIMAL(10,0)  comment '守门员人数' , </v>
+        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E61" s="1" t="str">
         <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
-        <v>MATCH_DEFENDER_MEMBERS DECIMAL(10,0)  comment '后卫人数' , </v>
+        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="E62" s="1" t="str">
         <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
-        <v>MATCH_MIDFIELDER_MEMBERS DECIMAL(10,0)  comment '中场人数' , </v>
+        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E63" s="1" t="str">
         <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
-        <v>MATCH_STRIKER_MEMBERS DECIMAL(10,0)  comment '前锋人数' , </v>
+        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E64" s="1" t="str">
         <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
-        <v>MATCH_REFEREE_MEMBERS DECIMAL(10,0)  comment '裁判人数' , </v>
+        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E65" s="1" t="str">
         <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
-        <v>MATCH_TEAMA_ID DECIMAL(10,0)  comment 'A球队临时ID' , </v>
+        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E66" s="1" t="str">
         <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
-        <v>MATCH_TEAMB_ID DECIMAL(10,0)  comment 'B球队临时ID' , </v>
+        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E71" s="1" t="str">
         <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:4">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="E77" s="1" t="str">
         <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
-        <v>MM_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '参赛人员表非空主键' , </v>
+        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:5">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" ref="E78:E86" si="4">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
-        <v>M_ID DECIMAL(10,0)  comment '关联比赛MID' , </v>
+        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E79" s="1" t="str">
         <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
-        <v>T_ID DECIMAL(10,0)  comment '报名临时球队ID' , </v>
+        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:5">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E80" s="1" t="str">
         <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
-        <v>U_ID DECIMAL(10,0)  comment '关联UID' , </v>
+        <v>U_ID INT(11)  comment '关联UID' , </v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E86" s="1" t="str">
         <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E92" s="1" t="str">
         <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
-        <v>D_ID DECIMAL(10,0) NOT NULL PRIMARY KEY comment '字典表非空主键' , </v>
+        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E94" s="1" t="str">
         <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
-        <v>D_TYPE DECIMAL(10,0)  comment '类型' , </v>
+        <v>D_TYPE INT(11)  comment '类型' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E99" s="1" t="str">
         <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
-        <v>DELSIGN DECIMAL(1,0)  comment '删除标识' , </v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
   <si>
     <t>NO</t>
   </si>
@@ -79,21 +79,9 @@
     <t>用户名</t>
   </si>
   <si>
-    <t>TOKEN</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
     <t>VARCHAR(2)</t>
   </si>
   <si>
-    <t>用户角色</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -341,18 +329,20 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>USEX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -375,7 +365,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -418,23 +408,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -459,14 +434,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -765,6 +737,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -797,15 +770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90:E99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -815,7 +787,7 @@
     <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +801,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,7 +811,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -853,7 +825,7 @@
         <v>drop table T_USER;</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:5">
+    <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -886,7 +858,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
-        <v>ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
+        <v xml:space="preserve">ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -901,8 +873,8 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E16" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
-        <v>LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
+        <f t="shared" ref="E6" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
+        <v xml:space="preserve">LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -917,11 +889,11 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
-        <v>LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
+        <f t="shared" ref="E7:E15" si="1">A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
+        <v xml:space="preserve">LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -933,1359 +905,1343 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>A8&amp;" "&amp;B8&amp;" "&amp;C8&amp;" comment '"&amp;D8&amp;"' , "</f>
-        <v>USER_NAME VARCHAR(100)  comment '用户名' , </v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">USER_NAME VARCHAR(100)  comment '用户名' , </v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">USEX VARCHAR(2)  comment '用户性别' , </v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;" comment '"&amp;D9&amp;"' , "</f>
-        <v>TOKEN VARCHAR(100)  comment 'token' , </v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">STATUS VARCHAR(2)  comment '用户激活状态' , </v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>A10&amp;" "&amp;B10&amp;" "&amp;C10&amp;" comment '"&amp;D10&amp;"' , "</f>
-        <v>ROLE VARCHAR(2)  comment '用户角色' , </v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f>A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
-        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" comment '"&amp;D12&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;" comment '"&amp;D13&amp;"' , "</f>
-        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;" comment '"&amp;D14&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" comment '"&amp;D15&amp;"' , "</f>
-        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;" comment '"&amp;D16&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="E19" s="1" t="str">
+        <f>"drop table "&amp;B18&amp;";"</f>
+        <v>drop table T_TEAM_FOOTBALL;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="1" t="str">
-        <f>"drop table "&amp;B19&amp;";"</f>
-        <v>drop table T_TEAM_FOOTBALL;</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B18&amp;" ("</f>
+        <v>create table T_TEAM_FOOTBALL (</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>"create table "&amp;B19&amp;" ("</f>
-        <v>create table T_TEAM_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
+        <f>A21&amp;" "&amp;B21&amp;" "&amp;C21&amp;" comment '"&amp;D21&amp;"' , "</f>
+        <v xml:space="preserve">TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="1" t="str">
+        <f t="shared" ref="E22" si="2">A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
+        <v xml:space="preserve">TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f>A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
-        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" ref="E23:E32" si="1">A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
-        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+        <f t="shared" ref="E23:E31" si="3">A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
+        <v xml:space="preserve">TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f>A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
-        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;" comment '"&amp;D25&amp;"' , "</f>
-        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
-        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">TEAM_POINTS INT(11)  comment '球队积分' , </v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
-        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;" comment '"&amp;D29&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" comment '"&amp;D30&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;" comment '"&amp;D31&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="D33" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18.75" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75">
       <c r="A35" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="E35" s="1" t="str">
+        <f>"drop table "&amp;B34&amp;";"</f>
+        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E36" s="1" t="str">
-        <f>"drop table "&amp;B35&amp;";"</f>
-        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B34&amp;" ("</f>
+        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>"create table "&amp;B35&amp;" ("</f>
-        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:5">
+        <f>A37&amp;" "&amp;B37&amp;" "&amp;C37&amp;" comment '"&amp;D37&amp;"' , "</f>
+        <v xml:space="preserve">TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>55</v>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
-        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:5">
+        <f t="shared" ref="E38" si="4">A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
+        <v xml:space="preserve">T_ID INT(11)  comment '关联球队TID' , </v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" ref="E39:E49" si="5">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
+        <v xml:space="preserve">U_ID INT(11)  comment '用户ID' , </v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" ref="E39:E50" si="2">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '关联球队TID' , </v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="1" t="str">
-        <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '用户ID' , </v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
-        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>64</v>
+      <c r="D42" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
-        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;" comment '"&amp;D43&amp;"' , "</f>
-        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
-        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" comment '"&amp;D45&amp;"' , "</f>
-        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="1" t="str">
-        <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" comment '"&amp;D48&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;" comment '"&amp;D49&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="52" ht="18.75" spans="1:4">
+      <c r="D51" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.75">
+      <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="53" ht="18.75" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-    </row>
-    <row r="54" ht="18.75" spans="1:5">
+      <c r="E53" s="1" t="str">
+        <f>"drop table "&amp;B52&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E54" s="1" t="str">
-        <f>"drop table "&amp;B53&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL;</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B52&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL (</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>"create table "&amp;B53&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL (</v>
+        <f>A55&amp;" "&amp;B55&amp;" "&amp;C55&amp;" comment '"&amp;D55&amp;"' , "</f>
+        <v xml:space="preserve">M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
-        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
+        <f t="shared" ref="E56" si="6">A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
+        <v xml:space="preserve">MATCH_DATE DATE  comment '比赛日期' , </v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" ref="E57:E71" si="3">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
-        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
+        <f t="shared" ref="E57:E70" si="7">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
+        <v xml:space="preserve">MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
-        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>79</v>
+      <c r="D59" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
-        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
-        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
-        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
-        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1">
       <c r="A63" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
-        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" customFormat="1">
       <c r="A64" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
-        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" customFormat="1">
       <c r="A65" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
-        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
-        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;" comment '"&amp;D68&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="1" t="str">
-        <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" comment '"&amp;D69&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;" comment '"&amp;D70&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:5">
-      <c r="A71" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="1" t="str">
-        <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="73" ht="18.75" spans="1:4">
+      <c r="D72" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75">
       <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="18.75">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="74" ht="18.75" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:5">
+      <c r="E74" s="1" t="str">
+        <f>"drop table "&amp;B73&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75">
       <c r="A75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E75" s="1" t="str">
-        <f>"drop table "&amp;B74&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
-      </c>
-    </row>
-    <row r="76" ht="18.75" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B73&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>"create table "&amp;B74&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
+        <f>A76&amp;" "&amp;B76&amp;" "&amp;C76&amp;" comment '"&amp;D76&amp;"' , "</f>
+        <v xml:space="preserve">MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
-        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:5">
+        <f t="shared" ref="E77" si="8">A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
+        <v xml:space="preserve">M_ID INT(11)  comment '关联比赛MID' , </v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" ref="E78:E86" si="4">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
-        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:5">
+        <f t="shared" ref="E78:E85" si="9">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
+        <v xml:space="preserve">T_ID INT(11)  comment '报名临时球队ID' , </v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:5">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">U_ID INT(11)  comment '关联UID' , </v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '关联UID' , </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
-        <v>101</v>
+      <c r="D81" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
-        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;" comment '"&amp;D82&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;" comment '"&amp;D83&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" comment '"&amp;D84&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="E85" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="18.75">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="1" t="str">
-        <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;" comment '"&amp;D85&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="1" t="str">
-        <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="88" ht="18.75" spans="1:4">
+      <c r="D87" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75">
       <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" ht="18.75">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="89" ht="18.75" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-    </row>
-    <row r="90" ht="18.75" spans="1:5">
+      <c r="E89" s="1" t="str">
+        <f>"drop table "&amp;B88&amp;";"</f>
+        <v>drop table T_DICTIONARY;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="18.75">
       <c r="A90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E90" s="1" t="str">
-        <f>"drop table "&amp;B89&amp;";"</f>
-        <v>drop table T_DICTIONARY;</v>
-      </c>
-    </row>
-    <row r="91" ht="18.75" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>9</v>
+        <f>"create table "&amp;B88&amp;" ("</f>
+        <v>create table T_DICTIONARY (</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>"create table "&amp;B89&amp;" ("</f>
-        <v>create table T_DICTIONARY (</v>
+        <f>A91&amp;" "&amp;B91&amp;" "&amp;C91&amp;" comment '"&amp;D91&amp;"' , "</f>
+        <v xml:space="preserve">D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
-        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
+        <f t="shared" ref="E92" si="10">A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
+        <v xml:space="preserve">D_NAMME VARCHAR(500)  comment '名称' , </v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" ref="E93:E99" si="5">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
-        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
+        <f t="shared" ref="E93:E98" si="11">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
+        <v xml:space="preserve">D_TYPE INT(11)  comment '类型' , </v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
-        <v>108</v>
+      <c r="D94" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
-        <v>D_TYPE INT(11)  comment '类型' , </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;" comment '"&amp;D97&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E98" s="1" t="str">
-        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;" comment '"&amp;D98&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="1" t="str">
-        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>NO</t>
   </si>
@@ -79,9 +79,15 @@
     <t>用户名</t>
   </si>
   <si>
+    <t>USEX</t>
+  </si>
+  <si>
     <t>VARCHAR(2)</t>
   </si>
   <si>
+    <t>用户性别</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -163,6 +169,61 @@
     <t>球队积分</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+  </si>
+  <si>
+    <t>球队状态： 0-未审核；1-审核通过</t>
+  </si>
+  <si>
     <t>T_TEAM_FOOTBALL_MEMBER</t>
   </si>
   <si>
@@ -329,21 +390,19 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>USEX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -365,7 +424,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -408,12 +480,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,12 +520,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -737,7 +830,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -770,24 +862,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="81.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +894,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75">
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +904,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" ht="18.75" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +918,7 @@
         <v>drop table T_USER;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75">
+    <row r="4" ht="18.75" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -858,7 +951,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
-        <v xml:space="preserve">ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
+        <v>ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -874,7 +967,7 @@
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" ref="E6" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
-        <v xml:space="preserve">LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
+        <v>LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -890,7 +983,7 @@
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" ref="E7:E15" si="1">A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
-        <v xml:space="preserve">LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
+        <v>LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -905,123 +998,123 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">USER_NAME VARCHAR(100)  comment '用户名' , </v>
+        <f>A8&amp;" "&amp;B8&amp;" "&amp;C8&amp;" comment '"&amp;D8&amp;"' , "</f>
+        <v>USER_NAME VARCHAR(100)  comment '用户名' , </v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">USEX VARCHAR(2)  comment '用户性别' , </v>
+        <f>A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;" comment '"&amp;D9&amp;"' , "</f>
+        <v>USEX VARCHAR(2)  comment '用户性别' , </v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">STATUS VARCHAR(2)  comment '用户激活状态' , </v>
+        <f>A10&amp;" "&amp;B10&amp;" "&amp;C10&amp;" comment '"&amp;D10&amp;"' , "</f>
+        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
+        <f>A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" comment '"&amp;D12&amp;"' , "</f>
+        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;" comment '"&amp;D13&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+        <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;" comment '"&amp;D14&amp;"' , "</f>
+        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75">
+        <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" comment '"&amp;D15&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1035,17 +1128,17 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75">
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75">
+    <row r="19" ht="18.75" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1152,7 @@
         <v>drop table T_TEAM_FOOTBALL;</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75">
+    <row r="20" ht="18.75" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1172,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>11</v>
@@ -1088,91 +1181,91 @@
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>A21&amp;" "&amp;B21&amp;" "&amp;C21&amp;" comment '"&amp;D21&amp;"' , "</f>
-        <v xml:space="preserve">TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
+        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" ref="E22" si="2">A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
-        <v xml:space="preserve">TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
+        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" ref="E23:E31" si="3">A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
-        <v xml:space="preserve">TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
+        <f>A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
+        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
+        <f>A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
+        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
+        <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;" comment '"&amp;D25&amp;"' , "</f>
+        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">TEAM_POINTS INT(11)  comment '球队积分' , </v>
+        <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
+        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1180,15 +1273,17 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
+        <v>STATUS INT(1) NOT NULL DEFAULT '0' comment '球队状态： 0-未审核；1-审核通过' , </v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1196,15 +1291,15 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1212,15 +1307,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;" comment '"&amp;D29&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1228,15 +1323,15 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" comment '"&amp;D30&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1244,217 +1339,217 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="1" t="str">
+        <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;" comment '"&amp;D31&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D34" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75">
-      <c r="A34" s="2" t="s">
+    <row r="35" ht="18.75" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="1" t="str">
-        <f>"drop table "&amp;B34&amp;";"</f>
+    </row>
+    <row r="36" ht="18.75" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1" t="str">
+        <f>"drop table "&amp;B35&amp;";"</f>
         <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75">
-      <c r="A36" s="2" t="s">
+    <row r="37" ht="18.75" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f>"create table "&amp;B34&amp;" ("</f>
+      <c r="E37" s="1" t="str">
+        <f>"create table "&amp;B35&amp;" ("</f>
         <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f>A37&amp;" "&amp;B37&amp;" "&amp;C37&amp;" comment '"&amp;D37&amp;"' , "</f>
-        <v xml:space="preserve">TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>53</v>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" ref="E38" si="4">A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
-        <v xml:space="preserve">T_ID INT(11)  comment '关联球队TID' , </v>
+        <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
+        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" ref="E39:E49" si="5">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
-        <v xml:space="preserve">U_ID INT(11)  comment '用户ID' , </v>
+        <f t="shared" ref="E39" si="3">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
+        <f t="shared" ref="E40:E50" si="4">A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
+        <v>U_ID INT(11)  comment '用户ID' , </v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
+        <f>A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
+        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="6" t="s">
-        <v>62</v>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
+        <f>A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
+        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
+        <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;" comment '"&amp;D43&amp;"' , "</f>
+        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
+        <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
+        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" comment '"&amp;D45&amp;"' , "</f>
+        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1462,15 +1557,15 @@
         <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1478,15 +1573,15 @@
         <v>28</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1494,15 +1589,15 @@
         <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" comment '"&amp;D48&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1510,265 +1605,265 @@
         <v>32</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="1" t="str">
+        <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;" comment '"&amp;D49&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.75">
-      <c r="A51" s="2" t="s">
+      <c r="B50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>4</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D52" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75">
-      <c r="A52" s="2" t="s">
+    <row r="53" ht="18.75" spans="1:4">
+      <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="18.75">
-      <c r="A53" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B53" s="5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="1" t="str">
-        <f>"drop table "&amp;B52&amp;";"</f>
+    </row>
+    <row r="54" ht="18.75" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="1" t="str">
+        <f>"drop table "&amp;B53&amp;";"</f>
         <v>drop table T_MATCH_FOOTBALL;</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75">
-      <c r="A54" s="2" t="s">
+    <row r="55" ht="18.75" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="1" t="str">
-        <f>"create table "&amp;B52&amp;" ("</f>
+      <c r="E55" s="1" t="str">
+        <f>"create table "&amp;B53&amp;" ("</f>
         <v>create table T_MATCH_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <f>A55&amp;" "&amp;B55&amp;" "&amp;C55&amp;" comment '"&amp;D55&amp;"' , "</f>
-        <v xml:space="preserve">M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D56" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" ref="E56" si="6">A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
-        <v xml:space="preserve">MATCH_DATE DATE  comment '比赛日期' , </v>
+        <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
+        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" ref="E57:E70" si="7">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
-        <v xml:space="preserve">MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
+        <f t="shared" ref="E57" si="5">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
+        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
+        <f t="shared" ref="E58:E71" si="6">A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
+        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="6" t="s">
-        <v>77</v>
+      <c r="D59" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
+        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
+        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
+        <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
+        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
+        <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
+        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" customFormat="1">
+        <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
+        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" customFormat="1">
+        <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
+        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" customFormat="1">
+        <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
+        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
+        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
+        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1776,15 +1871,15 @@
         <v>26</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1792,15 +1887,15 @@
         <v>28</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;" comment '"&amp;D68&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1808,15 +1903,15 @@
         <v>30</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" comment '"&amp;D69&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1824,169 +1919,169 @@
         <v>32</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="1" t="str">
+        <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;" comment '"&amp;D70&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75">
-      <c r="A72" s="2" t="s">
+      <c r="B71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:4">
+      <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D73" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75">
-      <c r="A73" s="2" t="s">
+    <row r="74" ht="18.75" spans="1:4">
+      <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" ht="18.75">
-      <c r="A74" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B74" s="5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="1" t="str">
-        <f>"drop table "&amp;B73&amp;";"</f>
+    </row>
+    <row r="75" ht="18.75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="1" t="str">
+        <f>"drop table "&amp;B74&amp;";"</f>
         <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75">
-      <c r="A75" s="2" t="s">
+    <row r="76" ht="18.75" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="1" t="str">
-        <f>"create table "&amp;B73&amp;" ("</f>
+      <c r="E76" s="1" t="str">
+        <f>"create table "&amp;B74&amp;" ("</f>
         <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f>A76&amp;" "&amp;B76&amp;" "&amp;C76&amp;" comment '"&amp;D76&amp;"' , "</f>
-        <v xml:space="preserve">MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" ref="E77" si="8">A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
-        <v xml:space="preserve">M_ID INT(11)  comment '关联比赛MID' , </v>
+        <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
+        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" ref="E78:E85" si="9">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
-        <v xml:space="preserve">T_ID INT(11)  comment '报名临时球队ID' , </v>
+        <f t="shared" ref="E78" si="7">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
+        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">U_ID INT(11)  comment '关联UID' , </v>
+        <f t="shared" ref="E79:E86" si="8">A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
+        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
+        <v>U_ID INT(11)  comment '关联UID' , </v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="6" t="s">
-        <v>25</v>
+      <c r="D81" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
+        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1994,15 +2089,15 @@
         <v>26</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;" comment '"&amp;D82&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2010,15 +2105,15 @@
         <v>28</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;" comment '"&amp;D83&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2026,15 +2121,15 @@
         <v>30</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" comment '"&amp;D84&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2042,137 +2137,137 @@
         <v>32</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="1" t="str">
+        <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;" comment '"&amp;D85&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.75">
-      <c r="A87" s="2" t="s">
+      <c r="B86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" spans="1:4">
+      <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>5</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D88" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18.75">
-      <c r="A88" s="2" t="s">
+    <row r="89" ht="18.75" spans="1:4">
+      <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" ht="18.75">
-      <c r="A89" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B89" s="5" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="1" t="str">
-        <f>"drop table "&amp;B88&amp;";"</f>
+    </row>
+    <row r="90" ht="18.75" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="1" t="str">
+        <f>"drop table "&amp;B89&amp;";"</f>
         <v>drop table T_DICTIONARY;</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18.75">
-      <c r="A90" s="2" t="s">
+    <row r="91" ht="18.75" spans="1:5">
+      <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="1" t="str">
-        <f>"create table "&amp;B88&amp;" ("</f>
+      <c r="E91" s="1" t="str">
+        <f>"create table "&amp;B89&amp;" ("</f>
         <v>create table T_DICTIONARY (</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="1" t="str">
-        <f>A91&amp;" "&amp;B91&amp;" "&amp;C91&amp;" comment '"&amp;D91&amp;"' , "</f>
-        <v xml:space="preserve">D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D92" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" ref="E92" si="10">A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
-        <v xml:space="preserve">D_NAMME VARCHAR(500)  comment '名称' , </v>
+        <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
+        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" ref="E93:E98" si="11">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
-        <v xml:space="preserve">D_TYPE INT(11)  comment '类型' , </v>
+        <f t="shared" ref="E93" si="9">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
+        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="6" t="s">
-        <v>25</v>
+      <c r="D94" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f t="shared" ref="E94:E99" si="10">A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
+        <v>D_TYPE INT(11)  comment '类型' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2180,15 +2275,15 @@
         <v>26</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2196,15 +2291,15 @@
         <v>28</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2212,15 +2307,15 @@
         <v>30</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;" comment '"&amp;D97&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2228,20 +2323,36 @@
         <v>32</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="1" t="str">
+        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;" comment '"&amp;D98&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E98" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">DELSIGN INT(1)  comment '删除标识' , </v>
+      <c r="B99" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>NO</t>
   </si>
@@ -79,6 +79,18 @@
     <t>用户名</t>
   </si>
   <si>
+    <t>NICK_NAME</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>ENG_NAME</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
     <t>USEX</t>
   </si>
   <si>
@@ -170,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">NOT </t>
     </r>
     <r>
@@ -397,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -864,10 +882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -950,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
+        <f t="shared" ref="E5:E10" si="0">A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
         <v>ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
       </c>
     </row>
@@ -966,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6" si="0">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
+        <f t="shared" ref="E6" si="1">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
         <v>LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
       </c>
     </row>
@@ -982,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" ref="E7:E15" si="1">A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
+        <f>A7&amp;" "&amp;B7&amp;" "&amp;C7&amp;" comment '"&amp;D7&amp;"' , "</f>
         <v>LOGIN_PASSWORD VARCHAR(100)  comment '用户登录密码' , </v>
       </c>
     </row>
@@ -1007,47 +1025,47 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;" comment '"&amp;D9&amp;"' , "</f>
-        <v>USEX VARCHAR(2)  comment '用户性别' , </v>
+        <v>NICK_NAME VARCHAR(100)  comment '昵称' , </v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>A10&amp;" "&amp;B10&amp;" "&amp;C10&amp;" comment '"&amp;D10&amp;"' , "</f>
-        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
+        <v>ENG_NAME VARCHAR(100)  comment '英文名' , </v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f t="shared" ref="E11:E17" si="2">A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
+        <v>USEX VARCHAR(2)  comment '用户性别' , </v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1055,15 +1073,15 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" comment '"&amp;D12&amp;"' , "</f>
-        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
+        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1079,7 +1097,7 @@
       </c>
       <c r="E13" s="1" t="str">
         <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;" comment '"&amp;D13&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1095,7 +1113,7 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;" comment '"&amp;D14&amp;"' , "</f>
-        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1103,137 +1121,137 @@
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" comment '"&amp;D15&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;" comment '"&amp;D16&amp;"' , "</f>
+        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>A17&amp;" "&amp;B17&amp;" "&amp;C17&amp;" comment '"&amp;D17&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:4">
-      <c r="A17" s="2" t="s">
+    <row r="19" ht="18.75" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D19" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:4">
-      <c r="A18" s="2" t="s">
+    <row r="20" ht="18.75" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" ht="18.75" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1" t="str">
-        <f>"drop table "&amp;B18&amp;";"</f>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1" t="str">
+        <f>"drop table "&amp;B20&amp;";"</f>
         <v>drop table T_TEAM_FOOTBALL;</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="22" ht="18.75" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f>"create table "&amp;B18&amp;" ("</f>
+      <c r="E22" s="1" t="str">
+        <f>"create table "&amp;B20&amp;" ("</f>
         <v>create table T_TEAM_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f>A21&amp;" "&amp;B21&amp;" "&amp;C21&amp;" comment '"&amp;D21&amp;"' , "</f>
-        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22" si="2">A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
-        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
-        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
+        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
-        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
+        <f t="shared" ref="E24:E34" si="3">A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
+        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1241,15 +1259,15 @@
         <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;" comment '"&amp;D25&amp;"' , "</f>
-        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
+        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1257,49 +1275,47 @@
         <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
-        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
+        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
-        <v>STATUS INT(1) NOT NULL DEFAULT '0' comment '球队状态： 0-未审核；1-审核通过' , </v>
+        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1307,15 +1323,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;" comment '"&amp;D29&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>STATUS INT(1) NOT NULL DEFAULT '0' comment '球队状态： 0-未审核；1-审核通过' , </v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1331,7 +1349,7 @@
       </c>
       <c r="E30" s="1" t="str">
         <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" comment '"&amp;D30&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1347,7 +1365,7 @@
       </c>
       <c r="E31" s="1" t="str">
         <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;" comment '"&amp;D31&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1355,105 +1373,103 @@
         <v>34</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>A33&amp;" "&amp;B33&amp;" "&amp;C33&amp;" comment '"&amp;D33&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>A34&amp;" "&amp;B34&amp;" "&amp;C34&amp;" comment '"&amp;D34&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="34" ht="18.75" spans="1:4">
-      <c r="A34" s="2" t="s">
+    <row r="36" ht="18.75" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D36" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="35" ht="18.75" spans="1:4">
-      <c r="A35" s="2" t="s">
+    <row r="37" ht="18.75" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" ht="18.75" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1" t="str">
-        <f>"drop table "&amp;B35&amp;";"</f>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="1" t="str">
+        <f>"drop table "&amp;B37&amp;";"</f>
         <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
       </c>
     </row>
-    <row r="37" ht="18.75" spans="1:5">
-      <c r="A37" s="2" t="s">
+    <row r="39" ht="18.75" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f>"create table "&amp;B35&amp;" ("</f>
+      <c r="E39" s="1" t="str">
+        <f>"create table "&amp;B37&amp;" ("</f>
         <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
-        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" ref="E39" si="3">A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1463,13 +1479,15 @@
       <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" ref="E40:E50" si="4">A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '用户ID' , </v>
+        <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
+        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1477,47 +1495,47 @@
         <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
-        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
+        <f t="shared" ref="E41" si="4">A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
-        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
+        <f t="shared" ref="E42:E52" si="5">A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
+        <v>U_ID INT(11)  comment '用户ID' , </v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;" comment '"&amp;D43&amp;"' , "</f>
-        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
+        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1525,15 +1543,15 @@
         <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
-        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
+        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1549,39 +1567,39 @@
       </c>
       <c r="E45" s="1" t="str">
         <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" comment '"&amp;D45&amp;"' , "</f>
-        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
+        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1597,7 +1615,7 @@
       </c>
       <c r="E48" s="1" t="str">
         <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" comment '"&amp;D48&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1613,7 +1631,7 @@
       </c>
       <c r="E49" s="1" t="str">
         <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;" comment '"&amp;D49&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1621,105 +1639,103 @@
         <v>34</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;" comment '"&amp;D51&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>A52&amp;" "&amp;B52&amp;" "&amp;C52&amp;" comment '"&amp;D52&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="52" ht="18.75" spans="1:4">
-      <c r="A52" s="2" t="s">
+    <row r="54" ht="18.75" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B54" s="3">
         <v>4</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D54" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="53" ht="18.75" spans="1:4">
-      <c r="A53" s="2" t="s">
+    <row r="55" ht="18.75" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" ht="18.75" spans="1:5">
-      <c r="A54" s="2" t="s">
+      <c r="B55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:5">
+      <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="1" t="str">
-        <f>"drop table "&amp;B53&amp;";"</f>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="1" t="str">
+        <f>"drop table "&amp;B55&amp;";"</f>
         <v>drop table T_MATCH_FOOTBALL;</v>
       </c>
     </row>
-    <row r="55" ht="18.75" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="57" ht="18.75" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="1" t="str">
-        <f>"create table "&amp;B53&amp;" ("</f>
+      <c r="E57" s="1" t="str">
+        <f>"create table "&amp;B55&amp;" ("</f>
         <v>create table T_MATCH_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="1" t="str">
-        <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
-        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="1" t="str">
-        <f t="shared" ref="E57" si="5">A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
-        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1727,15 +1743,17 @@
         <v>76</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D58" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" ref="E58:E71" si="6">A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
-        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
+        <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
+        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1743,15 +1761,15 @@
         <v>78</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
-        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
+        <f t="shared" ref="E59" si="6">A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
+        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1759,15 +1777,15 @@
         <v>80</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
-        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
+        <f t="shared" ref="E60:E73" si="7">A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
+        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1778,12 +1796,12 @@
         <v>11</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
-        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
+        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1799,7 +1817,7 @@
       </c>
       <c r="E62" s="1" t="str">
         <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
-        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
+        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1815,10 +1833,10 @@
       </c>
       <c r="E63" s="1" t="str">
         <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
-        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:5">
+        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>88</v>
       </c>
@@ -1831,10 +1849,10 @@
       </c>
       <c r="E64" s="1" t="str">
         <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
-        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:5">
+        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
@@ -1847,7 +1865,7 @@
       </c>
       <c r="E65" s="1" t="str">
         <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
-        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:5">
@@ -1863,39 +1881,39 @@
       </c>
       <c r="E66" s="1" t="str">
         <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
-        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;" comment '"&amp;D68&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1911,7 +1929,7 @@
       </c>
       <c r="E69" s="1" t="str">
         <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" comment '"&amp;D69&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1927,7 +1945,7 @@
       </c>
       <c r="E70" s="1" t="str">
         <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;" comment '"&amp;D70&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1935,185 +1953,185 @@
         <v>34</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>A72&amp;" "&amp;B72&amp;" "&amp;C72&amp;" comment '"&amp;D72&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>A73&amp;" "&amp;B73&amp;" "&amp;C73&amp;" comment '"&amp;D73&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="1:4">
-      <c r="A73" s="2" t="s">
+    <row r="75" ht="18.75" spans="1:4">
+      <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B75" s="3">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D75" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="74" ht="18.75" spans="1:4">
-      <c r="A74" s="2" t="s">
+    <row r="76" ht="18.75" spans="1:4">
+      <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:5">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" ht="18.75" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="1" t="str">
-        <f>"drop table "&amp;B74&amp;";"</f>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="1" t="str">
+        <f>"drop table "&amp;B76&amp;";"</f>
         <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
       </c>
     </row>
-    <row r="76" ht="18.75" spans="1:5">
-      <c r="A76" s="2" t="s">
+    <row r="78" ht="18.75" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="1" t="str">
-        <f>"create table "&amp;B74&amp;" ("</f>
+      <c r="E78" s="1" t="str">
+        <f>"create table "&amp;B76&amp;" ("</f>
         <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="1" t="str">
-        <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
-        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" s="1" t="str">
-        <f t="shared" ref="E78" si="7">A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
-        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D79" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" ref="E79:E86" si="8">A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
+        <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
+        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '关联UID' , </v>
+        <f t="shared" ref="E80" si="8">A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
+        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
-        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
+        <f t="shared" ref="E81:E88" si="9">A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="6" t="s">
-        <v>27</v>
+      <c r="D82" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E82" s="1" t="str">
         <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;" comment '"&amp;D82&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>U_ID INT(11)  comment '关联UID' , </v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="6" t="s">
-        <v>29</v>
+      <c r="D83" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E83" s="1" t="str">
         <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;" comment '"&amp;D83&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2129,7 +2147,7 @@
       </c>
       <c r="E84" s="1" t="str">
         <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" comment '"&amp;D84&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2145,7 +2163,7 @@
       </c>
       <c r="E85" s="1" t="str">
         <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;" comment '"&amp;D85&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2153,105 +2171,103 @@
         <v>34</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E86" s="1" t="str">
         <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;" comment '"&amp;D87&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>A88&amp;" "&amp;B88&amp;" "&amp;C88&amp;" comment '"&amp;D88&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="88" ht="18.75" spans="1:4">
-      <c r="A88" s="2" t="s">
+    <row r="90" ht="18.75" spans="1:4">
+      <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B90" s="3">
         <v>5</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D90" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="89" ht="18.75" spans="1:4">
-      <c r="A89" s="2" t="s">
+    <row r="91" ht="18.75" spans="1:4">
+      <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" ht="18.75" spans="1:5">
-      <c r="A90" s="2" t="s">
+      <c r="B91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" ht="18.75" spans="1:5">
+      <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="1" t="str">
-        <f>"drop table "&amp;B89&amp;";"</f>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="1" t="str">
+        <f>"drop table "&amp;B91&amp;";"</f>
         <v>drop table T_DICTIONARY;</v>
       </c>
     </row>
-    <row r="91" ht="18.75" spans="1:5">
-      <c r="A91" s="2" t="s">
+    <row r="93" ht="18.75" spans="1:5">
+      <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="1" t="str">
-        <f>"create table "&amp;B89&amp;" ("</f>
+      <c r="E93" s="1" t="str">
+        <f>"create table "&amp;B91&amp;" ("</f>
         <v>create table T_DICTIONARY (</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92" s="1" t="str">
-        <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
-        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="1" t="str">
-        <f t="shared" ref="E93" si="9">A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
-        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2261,45 +2277,47 @@
       <c r="B94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D94" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" ref="E94:E99" si="10">A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
-        <v>D_TYPE INT(11)  comment '类型' , </v>
+        <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
+        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="6" t="s">
-        <v>27</v>
+      <c r="D95" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f t="shared" ref="E95" si="10">A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
+        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="6" t="s">
-        <v>29</v>
+      <c r="D96" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <f t="shared" ref="E96:E101" si="11">A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
+        <v>D_TYPE INT(11)  comment '类型' , </v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2315,7 +2333,7 @@
       </c>
       <c r="E97" s="1" t="str">
         <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;" comment '"&amp;D97&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2331,7 +2349,7 @@
       </c>
       <c r="E98" s="1" t="str">
         <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;" comment '"&amp;D98&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2339,14 +2357,46 @@
         <v>34</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E99" s="1" t="str">
         <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>A100&amp;" "&amp;B100&amp;" "&amp;C100&amp;" comment '"&amp;D100&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>A101&amp;" "&amp;B101&amp;" "&amp;C101&amp;" comment '"&amp;D101&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>

--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -52,7 +52,7 @@
     <t>INT(11)</t>
   </si>
   <si>
-    <t>NOT NULL PRIMARY KEY AUTO_INCREMENT</t>
+    <t>NOT NULL PRIMARY KEY</t>
   </si>
   <si>
     <t>用户表非空主键</t>
@@ -885,7 +885,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" ref="E5:E10" si="0">A5&amp;" "&amp;B5&amp;" "&amp;C5&amp;" comment '"&amp;D5&amp;"' , "</f>
-        <v>ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '用户表非空主键' , </v>
+        <v>ID INT(11) NOT NULL PRIMARY KEY comment '用户表非空主键' , </v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -984,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6" si="1">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
+        <f t="shared" ref="E6:E10" si="1">A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" comment '"&amp;D6&amp;"' , "</f>
         <v>LOGIN_NAME VARCHAR(100)  comment '用户登录名' , </v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E23" s="1" t="str">
         <f>A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
-        <v>TID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队表非空主键' , </v>
+        <v>TID INT(11) NOT NULL PRIMARY KEY comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E40" s="1" t="str">
         <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
-        <v>TM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球队成员表非空主键' , </v>
+        <v>TM_ID INT(11) NOT NULL PRIMARY KEY comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E58" s="1" t="str">
         <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
-        <v>M_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '足球比赛表非空主键' , </v>
+        <v>M_ID INT(11) NOT NULL PRIMARY KEY comment '足球比赛表非空主键' , </v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E79" s="1" t="str">
         <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
-        <v>MM_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '参赛人员表非空主键' , </v>
+        <v>MM_ID INT(11) NOT NULL PRIMARY KEY comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E94" s="1" t="str">
         <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
-        <v>D_ID INT(11) NOT NULL PRIMARY KEY AUTO_INCREMENT comment '字典表非空主键' , </v>
+        <v>D_ID INT(11) NOT NULL PRIMARY KEY comment '字典表非空主键' , </v>
       </c>
     </row>
     <row r="95" spans="1:5">

--- a/src/main/resources/DB.xlsx
+++ b/src/main/resources/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>NO</t>
   </si>
@@ -100,6 +100,39 @@
     <t>用户性别</t>
   </si>
   <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>用户年龄</t>
+  </si>
+  <si>
+    <t>SPORTS_AGE</t>
+  </si>
+  <si>
+    <t>用户球龄</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>用户活跃度</t>
+  </si>
+  <si>
+    <t>BRIEF</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>用户简介</t>
+  </si>
+  <si>
+    <t>PROPERTY</t>
+  </si>
+  <si>
+    <t>用户属性</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -151,9 +184,6 @@
     <t>TEAM_NAME</t>
   </si>
   <si>
-    <t>VARCHAR(500)</t>
-  </si>
-  <si>
     <t>球队名称</t>
   </si>
   <si>
@@ -161,6 +191,12 @@
   </si>
   <si>
     <t>球队所在城市</t>
+  </si>
+  <si>
+    <t>TEAM_BRIEF</t>
+  </si>
+  <si>
+    <t>球队简介</t>
   </si>
   <si>
     <t>TEAM_CREATE_DATE</t>
@@ -269,7 +305,13 @@
     <t>VARCHAR(10)</t>
   </si>
   <si>
-    <t>在球队中职位</t>
+    <t>在球队中位置</t>
+  </si>
+  <si>
+    <t>MEMBER_DUTY</t>
+  </si>
+  <si>
+    <t>在球队中担职务</t>
   </si>
   <si>
     <t>MEMBER_JOIN_DATE</t>
@@ -415,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -882,10 +924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1064,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" ref="E11:E17" si="2">A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
+        <f t="shared" ref="E11:E16" si="2">A11&amp;" "&amp;B11&amp;" "&amp;C11&amp;" comment '"&amp;D11&amp;"' , "</f>
         <v>USEX VARCHAR(2)  comment '用户性别' , </v>
       </c>
     </row>
@@ -1073,7 +1115,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -1081,7 +1123,7 @@
       </c>
       <c r="E12" s="1" t="str">
         <f>A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" comment '"&amp;D12&amp;"' , "</f>
-        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
+        <v>AGE INT(11)  comment '用户年龄' , </v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1089,15 +1131,15 @@
         <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>A13&amp;" "&amp;B13&amp;" "&amp;C13&amp;" comment '"&amp;D13&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>SPORTS_AGE INT(11)  comment '用户球龄' , </v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1105,201 +1147,200 @@
         <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>A14&amp;" "&amp;B14&amp;" "&amp;C14&amp;" comment '"&amp;D14&amp;"' , "</f>
-        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>ACTIVITY INT(11)  comment '用户活跃度' , </v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" comment '"&amp;D15&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>BRIEF VARCHAR(500)  comment '用户简介' , </v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>A16&amp;" "&amp;B16&amp;" "&amp;C16&amp;" comment '"&amp;D16&amp;"' , "</f>
-        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+        <v>PROPERTY VARCHAR(100)  comment '用户属性' , </v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>A17&amp;" "&amp;B17&amp;" "&amp;C17&amp;" comment '"&amp;D17&amp;"' , "</f>
+        <f t="shared" ref="E17:E22" si="3">A17&amp;" "&amp;B17&amp;" "&amp;C17&amp;" comment '"&amp;D17&amp;"' , "</f>
+        <v>STATUS VARCHAR(2)  comment '用户激活状态' , </v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>A18&amp;" "&amp;B18&amp;" "&amp;C18&amp;" comment '"&amp;D18&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>A19&amp;" "&amp;B19&amp;" "&amp;C19&amp;" comment '"&amp;D19&amp;"' , "</f>
+        <v>INPUT_DATE VARCHAR(100)  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>A20&amp;" "&amp;B20&amp;" "&amp;C20&amp;" comment '"&amp;D20&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>A21&amp;" "&amp;B21&amp;" "&amp;C21&amp;" comment '"&amp;D21&amp;"' , "</f>
+        <v>UPDATE_DATE VARCHAR(100)  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>A22&amp;" "&amp;B22&amp;" "&amp;C22&amp;" comment '"&amp;D22&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="1:4">
-      <c r="A19" s="2" t="s">
+    <row r="23" ht="18.75"/>
+    <row r="24" ht="18.75" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D24" s="4">
         <v>42269</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" ht="18.75" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1" t="str">
-        <f>"drop table "&amp;B20&amp;";"</f>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1" t="str">
+        <f>"drop table "&amp;B25&amp;";"</f>
         <v>drop table T_TEAM_FOOTBALL;</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:5">
-      <c r="A22" s="2" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f>"create table "&amp;B20&amp;" ("</f>
+      <c r="E27" s="1" t="str">
+        <f>"create table "&amp;B25&amp;" ("</f>
         <v>create table T_TEAM_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f>A23&amp;" "&amp;B23&amp;" "&amp;C23&amp;" comment '"&amp;D23&amp;"' , "</f>
-        <v>TID INT(11) NOT NULL PRIMARY KEY comment '足球队表非空主键' , </v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:E34" si="3">A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" comment '"&amp;D24&amp;"' , "</f>
-        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;" comment '"&amp;D25&amp;"' , "</f>
-        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f>A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;" comment '"&amp;D26&amp;"' , "</f>
-        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f>A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" comment '"&amp;D27&amp;"' , "</f>
-        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1309,547 +1350,548 @@
       <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
-        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
+        <f t="shared" ref="E28:E31" si="4">A28&amp;" "&amp;B28&amp;" "&amp;C28&amp;" comment '"&amp;D28&amp;"' , "</f>
+        <v>TID INT(11) NOT NULL PRIMARY KEY comment '足球队表非空主键' , </v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>A29&amp;" "&amp;B29&amp;" "&amp;C29&amp;" comment '"&amp;D29&amp;"' , "</f>
-        <v>STATUS INT(1) NOT NULL DEFAULT '0' comment '球队状态： 0-未审核；1-审核通过' , </v>
+        <v>TEAM_NAME VARCHAR(500)  comment '球队名称' , </v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>31</v>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" comment '"&amp;D30&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>TEAM_CITY VARCHAR(100)  comment '球队所在城市' , </v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
+      <c r="D31" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>A31&amp;" "&amp;B31&amp;" "&amp;C31&amp;" comment '"&amp;D31&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>TEAM_BRIEF VARCHAR(500)  comment '球队简介' , </v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>35</v>
+      <c r="D32" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f t="shared" ref="E32:E40" si="5">A32&amp;" "&amp;B32&amp;" "&amp;C32&amp;" comment '"&amp;D32&amp;"' , "</f>
+        <v>TEAM_CREATE_DATE DATE  comment '球队创建时间' , </v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>A33&amp;" "&amp;B33&amp;" "&amp;C33&amp;" comment '"&amp;D33&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>TEAM_CAPTAIN INT(11)  comment '存队长的UID' , </v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>40</v>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>A34&amp;" "&amp;B34&amp;" "&amp;C34&amp;" comment '"&amp;D34&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>TEAM_POINTS INT(11)  comment '球队积分' , </v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>A35&amp;" "&amp;B35&amp;" "&amp;C35&amp;" comment '"&amp;D35&amp;"' , "</f>
+        <v>STATUS INT(1) NOT NULL DEFAULT '0' comment '球队状态： 0-未审核；1-审核通过' , </v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>A36&amp;" "&amp;B36&amp;" "&amp;C36&amp;" comment '"&amp;D36&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>A37&amp;" "&amp;B37&amp;" "&amp;C37&amp;" comment '"&amp;D37&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+      </c>
     </row>
     <row r="38" ht="18.75" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
+      <c r="A38" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E38" s="1" t="str">
-        <f>"drop table "&amp;B37&amp;";"</f>
-        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
+        <f>A38&amp;" "&amp;B38&amp;" "&amp;C38&amp;" comment '"&amp;D38&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>"create table "&amp;B37&amp;" ("</f>
-        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f>A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" comment '"&amp;D39&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>A40&amp;" "&amp;B40&amp;" "&amp;C40&amp;" comment '"&amp;D40&amp;"' , "</f>
-        <v>TM_ID INT(11) NOT NULL PRIMARY KEY comment '足球队成员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" ref="E41" si="4">A41&amp;" "&amp;B41&amp;" "&amp;C41&amp;" comment '"&amp;D41&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '关联球队TID' , </v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" ref="E42:E52" si="5">A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" comment '"&amp;D42&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '用户ID' , </v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="41" ht="18.75"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f>A43&amp;" "&amp;B43&amp;" "&amp;C43&amp;" comment '"&amp;D43&amp;"' , "</f>
-        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中职位' , </v>
-      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
-        <v>67</v>
+      <c r="A44" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="1" t="str">
-        <f>A44&amp;" "&amp;B44&amp;" "&amp;C44&amp;" comment '"&amp;D44&amp;"' , "</f>
-        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
+        <f>"drop table "&amp;B43&amp;";"</f>
+        <v>drop table T_TEAM_FOOTBALL_MEMBER;</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" comment '"&amp;D45&amp;"' , "</f>
-        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
+        <f>"create table "&amp;B43&amp;" ("</f>
+        <v>create table T_TEAM_FOOTBALL_MEMBER (</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="s">
-        <v>72</v>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
-        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
+        <f t="shared" ref="E46:E50" si="6">A46&amp;" "&amp;B46&amp;" "&amp;C46&amp;" comment '"&amp;D46&amp;"' , "</f>
+        <v>TM_ID INT(11) NOT NULL PRIMARY KEY comment '足球队成员表非空主键' , </v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="E47" s="1" t="str">
-        <f>A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
-        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
+        <f t="shared" ref="E47" si="7">A47&amp;" "&amp;B47&amp;" "&amp;C47&amp;" comment '"&amp;D47&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '关联球队TID' , </v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="6" t="s">
-        <v>31</v>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" comment '"&amp;D48&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <v>U_ID INT(11)  comment '用户ID' , </v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="6" t="s">
-        <v>33</v>
+      <c r="D49" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>A49&amp;" "&amp;B49&amp;" "&amp;C49&amp;" comment '"&amp;D49&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>MEMBER_POSITION VARCHAR(10)  comment '在球队中位置' , </v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="6" t="s">
-        <v>35</v>
+      <c r="D50" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>A50&amp;" "&amp;B50&amp;" "&amp;C50&amp;" comment '"&amp;D50&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>MEMBER_DUTY VARCHAR(10)  comment '在球队中担职务' , </v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="6" t="s">
-        <v>37</v>
+      <c r="D51" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;" comment '"&amp;D51&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f t="shared" ref="E51:E59" si="8">A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;" comment '"&amp;D51&amp;"' , "</f>
+        <v>MEMBER_JOIN_DATE DATE  comment '球员加入球队时间' , </v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>40</v>
+      <c r="D52" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>A52&amp;" "&amp;B52&amp;" "&amp;C52&amp;" comment '"&amp;D52&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="3">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>MEMBER_LEFT_DATE DATE  comment '球员离开球队时间' , </v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>A53&amp;" "&amp;B53&amp;" "&amp;C53&amp;" comment '"&amp;D53&amp;"' , "</f>
+        <v>MEMBER_ABSENT_TIME INT(11)  comment '球员缺席次数' , </v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>2</v>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>A54&amp;" "&amp;B54&amp;" "&amp;C54&amp;" comment '"&amp;D54&amp;"' , "</f>
+        <v>MEMBER_ABSENT_DATE DATE  comment '球员缺席时间' , </v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>A55&amp;" "&amp;B55&amp;" "&amp;C55&amp;" comment '"&amp;D55&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
     </row>
     <row r="56" ht="18.75" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
+      <c r="A56" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E56" s="1" t="str">
-        <f>"drop table "&amp;B55&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL;</v>
+        <f>A56&amp;" "&amp;B56&amp;" "&amp;C56&amp;" comment '"&amp;D56&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
+      <c r="A57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>"create table "&amp;B55&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL (</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <f>A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" comment '"&amp;D57&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>A58&amp;" "&amp;B58&amp;" "&amp;C58&amp;" comment '"&amp;D58&amp;"' , "</f>
-        <v>M_ID INT(11) NOT NULL PRIMARY KEY comment '足球比赛表非空主键' , </v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" ref="E59" si="6">A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
-        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <f t="shared" ref="E60:E73" si="7">A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" comment '"&amp;D60&amp;"' , "</f>
-        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f>A61&amp;" "&amp;B61&amp;" "&amp;C61&amp;" comment '"&amp;D61&amp;"' , "</f>
-        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
-        <v>84</v>
+        <f>A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" comment '"&amp;D59&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <f>A62&amp;" "&amp;B62&amp;" "&amp;C62&amp;" comment '"&amp;D62&amp;"' , "</f>
-        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
-      </c>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
-        <v>86</v>
+      <c r="A63" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="1" t="str">
-        <f>A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" comment '"&amp;D63&amp;"' , "</f>
-        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
+        <f>"drop table "&amp;B62&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL;</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6" t="s">
-        <v>89</v>
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>A64&amp;" "&amp;B64&amp;" "&amp;C64&amp;" comment '"&amp;D64&amp;"' , "</f>
-        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
+        <f>"create table "&amp;B62&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL (</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1859,45 +1901,47 @@
       <c r="B65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>A65&amp;" "&amp;B65&amp;" "&amp;C65&amp;" comment '"&amp;D65&amp;"' , "</f>
-        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:5">
+        <v>M_ID INT(11) NOT NULL PRIMARY KEY comment '足球比赛表非空主键' , </v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
-        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:5">
+        <f t="shared" ref="E66" si="9">A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" comment '"&amp;D66&amp;"' , "</f>
+        <v>MATCH_DATE DATE  comment '比赛日期' , </v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
-        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+        <f t="shared" ref="E67:E80" si="10">A67&amp;" "&amp;B67&amp;" "&amp;C67&amp;" comment '"&amp;D67&amp;"' , "</f>
+        <v>MATCH_ADDRESS VARCHAR(500)  comment '球队比赛地点' , </v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:5">
@@ -1908,495 +1952,607 @@
         <v>11</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>A68&amp;" "&amp;B68&amp;" "&amp;C68&amp;" comment '"&amp;D68&amp;"' , "</f>
-        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>MATCH_ORGANIZER INT(11)  comment '组织者UID' , </v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" comment '"&amp;D69&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>MATCH_KEEPER_MEMBERS INT(11)  comment '守门员人数' , </v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>A70&amp;" "&amp;B70&amp;" "&amp;C70&amp;" comment '"&amp;D70&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <v>MATCH_DEFENDER_MEMBERS INT(11)  comment '后卫人数' , </v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>A71&amp;" "&amp;B71&amp;" "&amp;C71&amp;" comment '"&amp;D71&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>MATCH_MIDFIELDER_MEMBERS INT(11)  comment '中场人数' , </v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E72" s="1" t="str">
         <f>A72&amp;" "&amp;B72&amp;" "&amp;C72&amp;" comment '"&amp;D72&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <v>MATCH_STRIKER_MEMBERS INT(11)  comment '前锋人数' , </v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
-        <v>40</v>
+      <c r="D73" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>A73&amp;" "&amp;B73&amp;" "&amp;C73&amp;" comment '"&amp;D73&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="75" ht="18.75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="3">
-        <v>5</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <v>MATCH_REFEREE_MEMBERS INT(11)  comment '裁判人数' , </v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>A74&amp;" "&amp;B74&amp;" "&amp;C74&amp;" comment '"&amp;D74&amp;"' , "</f>
+        <v>MATCH_TEAMA_ID INT(11)  comment 'A球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>A75&amp;" "&amp;B75&amp;" "&amp;C75&amp;" comment '"&amp;D75&amp;"' , "</f>
+        <v>MATCH_TEAMB_ID INT(11)  comment 'B球队临时ID' , </v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>A76&amp;" "&amp;B76&amp;" "&amp;C76&amp;" comment '"&amp;D76&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="76" ht="18.75" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" ht="18.75" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E77" s="1" t="str">
-        <f>"drop table "&amp;B76&amp;";"</f>
-        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
+        <f>A77&amp;" "&amp;B77&amp;" "&amp;C77&amp;" comment '"&amp;D77&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
+      <c r="A78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>"create table "&amp;B76&amp;" ("</f>
-        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f>A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" comment '"&amp;D78&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="79" ht="18.75" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E79" s="1" t="str">
         <f>A79&amp;" "&amp;B79&amp;" "&amp;C79&amp;" comment '"&amp;D79&amp;"' , "</f>
-        <v>MM_ID INT(11) NOT NULL PRIMARY KEY comment '参赛人员表非空主键' , </v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" ref="E80" si="8">A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
-        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="1" t="str">
-        <f t="shared" ref="E81:E88" si="9">A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" comment '"&amp;D81&amp;"' , "</f>
-        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="1" t="str">
-        <f>A82&amp;" "&amp;B82&amp;" "&amp;C82&amp;" comment '"&amp;D82&amp;"' , "</f>
-        <v>U_ID INT(11)  comment '关联UID' , </v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
-        <v>104</v>
+        <f>A80&amp;" "&amp;B80&amp;" "&amp;C80&amp;" comment '"&amp;D80&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="1" t="str">
-        <f>A83&amp;" "&amp;B83&amp;" "&amp;C83&amp;" comment '"&amp;D83&amp;"' , "</f>
-        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
-      </c>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="5" t="s">
-        <v>30</v>
+      <c r="A84" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="1" t="str">
-        <f>A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" comment '"&amp;D84&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+        <f>"drop table "&amp;B83&amp;";"</f>
+        <v>drop table T_MATCH_FOOTBALL_MEMBER;</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6" t="s">
-        <v>33</v>
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>A85&amp;" "&amp;B85&amp;" "&amp;C85&amp;" comment '"&amp;D85&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+        <f>"create table "&amp;B83&amp;" ("</f>
+        <v>create table T_MATCH_FOOTBALL_MEMBER (</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E86" s="1" t="str">
         <f>A86&amp;" "&amp;B86&amp;" "&amp;C86&amp;" comment '"&amp;D86&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <v>MM_ID INT(11) NOT NULL PRIMARY KEY comment '参赛人员表非空主键' , </v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="6" t="s">
-        <v>37</v>
+      <c r="D87" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;" comment '"&amp;D87&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f t="shared" ref="E87" si="11">A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;" comment '"&amp;D87&amp;"' , "</f>
+        <v>M_ID INT(11)  comment '关联比赛MID' , </v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>A88&amp;" "&amp;B88&amp;" "&amp;C88&amp;" comment '"&amp;D88&amp;"' , "</f>
-        <v>DELSIGN INT(1)  comment '删除标识' , </v>
-      </c>
-    </row>
-    <row r="90" ht="18.75" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="3">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2" t="s">
+        <f t="shared" ref="E88:E95" si="12">A88&amp;" "&amp;B88&amp;" "&amp;C88&amp;" comment '"&amp;D88&amp;"' , "</f>
+        <v>T_ID INT(11)  comment '报名临时球队ID' , </v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>A89&amp;" "&amp;B89&amp;" "&amp;C89&amp;" comment '"&amp;D89&amp;"' , "</f>
+        <v>U_ID INT(11)  comment '关联UID' , </v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>A90&amp;" "&amp;B90&amp;" "&amp;C90&amp;" comment '"&amp;D90&amp;"' , "</f>
+        <v>MATCH_MEMBER_POSITION VARCHAR(100)  comment '报名者踢球的位置' , </v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>A91&amp;" "&amp;B91&amp;" "&amp;C91&amp;" comment '"&amp;D91&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="4">
-        <v>42269</v>
-      </c>
-    </row>
-    <row r="91" ht="18.75" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" ht="18.75" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E92" s="1" t="str">
-        <f>"drop table "&amp;B91&amp;";"</f>
-        <v>drop table T_DICTIONARY;</v>
+        <f>A92&amp;" "&amp;B92&amp;" "&amp;C92&amp;" comment '"&amp;D92&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
       </c>
     </row>
     <row r="93" ht="18.75" spans="1:5">
-      <c r="A93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>9</v>
+      <c r="A93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>"create table "&amp;B91&amp;" ("</f>
-        <v>create table T_DICTIONARY (</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f>A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" comment '"&amp;D93&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" spans="1:5">
       <c r="A94" s="5" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E94" s="1" t="str">
         <f>A94&amp;" "&amp;B94&amp;" "&amp;C94&amp;" comment '"&amp;D94&amp;"' , "</f>
-        <v>D_ID INT(11) NOT NULL PRIMARY KEY comment '字典表非空主键' , </v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" ref="E95" si="10">A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
-        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="1" t="str">
-        <f t="shared" ref="E96:E101" si="11">A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" comment '"&amp;D96&amp;"' , "</f>
-        <v>D_TYPE INT(11)  comment '类型' , </v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="1" t="str">
-        <f>A97&amp;" "&amp;B97&amp;" "&amp;C97&amp;" comment '"&amp;D97&amp;"' , "</f>
-        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="5" t="s">
-        <v>32</v>
+        <f>A95&amp;" "&amp;B95&amp;" "&amp;C95&amp;" comment '"&amp;D95&amp;"' , "</f>
+        <v>DELSIGN INT(1)  comment '删除标识' , </v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="1" t="str">
-        <f>A98&amp;" "&amp;B98&amp;" "&amp;C98&amp;" comment '"&amp;D98&amp;"' , "</f>
-        <v>INPUT_DATE DATE  comment '插入时间' , </v>
-      </c>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>34</v>
+      <c r="A99" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="1" t="str">
-        <f>A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" comment '"&amp;D99&amp;"' , "</f>
-        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+        <f>"drop table "&amp;B98&amp;";"</f>
+        <v>drop table T_DICTIONARY;</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6" t="s">
-        <v>37</v>
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>A100&amp;" "&amp;B100&amp;" "&amp;C100&amp;" comment '"&amp;D100&amp;"' , "</f>
-        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+        <f>"create table "&amp;B98&amp;" ("</f>
+        <v>create table T_DICTIONARY (</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D101" s="5" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E101" s="1" t="str">
         <f>A101&amp;" "&amp;B101&amp;" "&amp;C101&amp;" comment '"&amp;D101&amp;"' , "</f>
+        <v>D_ID INT(11) NOT NULL PRIMARY KEY comment '字典表非空主键' , </v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f t="shared" ref="E102" si="13">A102&amp;" "&amp;B102&amp;" "&amp;C102&amp;" comment '"&amp;D102&amp;"' , "</f>
+        <v>D_NAMME VARCHAR(500)  comment '名称' , </v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f t="shared" ref="E103:E108" si="14">A103&amp;" "&amp;B103&amp;" "&amp;C103&amp;" comment '"&amp;D103&amp;"' , "</f>
+        <v>D_TYPE INT(11)  comment '类型' , </v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>A104&amp;" "&amp;B104&amp;" "&amp;C104&amp;" comment '"&amp;D104&amp;"' , "</f>
+        <v>INPUT_NAME VARCHAR(100)  comment '插入人' , </v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>A105&amp;" "&amp;B105&amp;" "&amp;C105&amp;" comment '"&amp;D105&amp;"' , "</f>
+        <v>INPUT_DATE DATE  comment '插入时间' , </v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>A106&amp;" "&amp;B106&amp;" "&amp;C106&amp;" comment '"&amp;D106&amp;"' , "</f>
+        <v>UPDATE_NAME VARCHAR(100)  comment '修改人' , </v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>A107&amp;" "&amp;B107&amp;" "&amp;C107&amp;" comment '"&amp;D107&amp;"' , "</f>
+        <v>UPDATE_DATE DATE  comment '修改时间' , </v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>A108&amp;" "&amp;B108&amp;" "&amp;C108&amp;" comment '"&amp;D108&amp;"' , "</f>
         <v>DELSIGN INT(1)  comment '删除标识' , </v>
       </c>
     </row>
